--- a/data/trans_orig/P16A_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Provincia-trans_orig.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,48</t>
+          <t>1,04; 1,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 1,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,71</t>
+          <t>1,39; 1,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 1,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 1,54</t>
+          <t>1,26; 1,48</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>1,33</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,28</t>
+          <t>0,91; 1,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 1,77</t>
+          <t>1,46; 1,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,48</t>
+          <t>1,22; 1,44</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,76</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,76</t>
+          <t>1,31; 1,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 2,23</t>
+          <t>1,81; 2,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 1,95</t>
+          <t>1,63; 1,93</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,18</t>
+          <t>0,84; 1,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,67</t>
+          <t>1,15; 1,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 1,94</t>
+          <t>1,74; 2,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 1,91</t>
+          <t>1,2; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,51</t>
+          <t>1,33; 1,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,46; 1,75</t>
+          <t>1,28; 1,67</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,43</t>
         </is>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,07</t>
+          <t>0,9; 2,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,71</t>
+          <t>0,99; 1,69</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,02</t>
+          <t>1,5; 1,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,29</t>
+          <t>1,84; 2,28</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,06</t>
+          <t>1,72; 2,05</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,94</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,47</t>
+          <t>1,16; 1,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,87</t>
+          <t>1,86; 3,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,35</t>
+          <t>1,57; 2,68</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,03</t>
+          <t>0,34; 1,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,4; 1,72</t>
+          <t>1,42; 1,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>0,63; 1,31</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,31</t>
+          <t>0,89; 1,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,03</t>
+          <t>1,68; 2,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 1,67</t>
+          <t>1,37; 1,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P16A_n_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,78</t>
+          <t>0,56; 0,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 1,44</t>
+          <t>0,92; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,02</t>
+          <t>0,78; 1,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,41</t>
+          <t>1,05; 1,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,27</t>
+          <t>0,93; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 1,76</t>
+          <t>1,4; 1,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,56</t>
+          <t>1,2; 1,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,67</t>
+          <t>1,39; 1,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,97</t>
+          <t>0,77; 0,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,54</t>
+          <t>1,22; 1,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,23</t>
+          <t>1,03; 1,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,48</t>
+          <t>1,27; 1,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -869,37 +869,37 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,3</t>
+          <t>0,97; 1,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,0</t>
+          <t>0,79; 1,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 1,24</t>
+          <t>0,92; 1,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,34</t>
+          <t>1,09; 1,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,81</t>
+          <t>1,51; 1,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,52</t>
+          <t>1,27; 1,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 1,75</t>
+          <t>1,46; 1,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,24 +909,24 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,5</t>
+          <t>1,28; 1,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,23</t>
+          <t>1,05; 1,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,44</t>
+          <t>1,22; 1,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,7</t>
+          <t>0,49; 0,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,27</t>
+          <t>0,96; 1,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 0,99</t>
+          <t>0,75; 0,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,73</t>
+          <t>1,31; 1,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,15</t>
+          <t>0,9; 1,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 1,8</t>
+          <t>1,45; 1,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,31</t>
+          <t>1,04; 1,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,21</t>
+          <t>1,8; 2,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,9</t>
+          <t>0,73; 0,89</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 1,49</t>
+          <t>1,26; 1,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,11</t>
+          <t>0,94; 1,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 1,93</t>
+          <t>1,63; 1,92</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,76</t>
+          <t>0,56; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,13</t>
+          <t>0,84; 1,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,33</t>
+          <t>1,04; 1,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,66</t>
+          <t>1,17; 1,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,26</t>
+          <t>0,98; 1,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,13</t>
+          <t>1,73; 2,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,02</t>
+          <t>1,64; 2,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,82</t>
+          <t>1,21; 1,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 0,98</t>
+          <t>0,8; 0,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 1,59</t>
+          <t>1,33; 1,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 1,63</t>
+          <t>1,38; 1,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,67</t>
+          <t>1,29; 1,66</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,9</t>
+          <t>0,62; 0,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,59 +1294,59 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,98</t>
+          <t>0,65; 0,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,35</t>
+          <t>1,0; 1,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,58</t>
+          <t>1,14; 1,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 2,76</t>
+          <t>2,12; 2,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,32; 1,8</t>
+          <t>1,33; 1,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,07</t>
+          <t>0,86; 2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,19</t>
+          <t>0,93; 1,19</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 2,03</t>
+          <t>1,62; 2,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,32</t>
+          <t>1,05; 1,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,69</t>
+          <t>0,96; 1,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,81</t>
+          <t>0,56; 0,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,37</t>
+          <t>1,02; 1,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 1,06</t>
+          <t>0,73; 1,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,5; 1,99</t>
+          <t>1,54; 1,99</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 1,32</t>
+          <t>1,01; 1,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 1,87</t>
+          <t>1,49; 1,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,59</t>
+          <t>1,18; 1,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,28</t>
+          <t>1,84; 2,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,01</t>
+          <t>0,82; 1,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,55</t>
+          <t>1,31; 1,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,28</t>
+          <t>0,99; 1,28</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,05</t>
+          <t>1,74; 2,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,47 +1564,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,86</t>
+          <t>0,65; 0,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,11</t>
+          <t>0,89; 1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,0</t>
+          <t>0,79; 1,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,44</t>
+          <t>1,17; 1,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,21</t>
+          <t>0,98; 1,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,62</t>
+          <t>1,38; 1,63</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,34</t>
+          <t>1,09; 1,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,22</t>
+          <t>1,86; 3,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,0</t>
+          <t>0,85; 1,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 1,15</t>
+          <t>0,98; 1,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,68</t>
+          <t>1,58; 2,76</t>
         </is>
       </c>
     </row>
@@ -1704,22 +1704,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,99</t>
+          <t>0,78; 0,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,91</t>
+          <t>0,72; 0,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,84; 1,02</t>
+          <t>0,83; 1,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,0</t>
+          <t>0,32; 1,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1729,17 +1729,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,49</t>
+          <t>1,24; 1,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,56</t>
+          <t>1,3; 1,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 1,72</t>
+          <t>1,43; 1,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,25</t>
+          <t>1,11; 1,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,31</t>
+          <t>0,68; 1,3</t>
         </is>
       </c>
     </row>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,76</t>
+          <t>0,68; 0,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,07</t>
+          <t>0,96; 1,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,26</t>
+          <t>0,89; 1,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,2</t>
+          <t>1,09; 1,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1874,12 +1874,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,46</t>
+          <t>1,33; 1,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,22</t>
+          <t>1,68; 2,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,37</t>
+          <t>1,29; 1,36</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,71</t>
+          <t>1,37; 1,75</t>
         </is>
       </c>
     </row>
